--- a/biology/Médecine/Effet_de_souffle/Effet_de_souffle.xlsx
+++ b/biology/Médecine/Effet_de_souffle/Effet_de_souffle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’effet de souffle ou blast, est l'effet sur l'organisme d'une explosion. Il est recherché par certaines armes (des obus ou grenades et mines aux bombes atomiques) et alors parfois associé à un effet thermique (double-effet dit « thermobarique »).
-Lors des guerres ou blessures par armes à feu ou lors d'une explosion accidentelle, les lésions induites par l'effet de souffle aggravent les blessures par balles ou éclats isolés et rendent le travail des médecins et chirurgiens plus délicat[1],[2].
-Certaines de ces armes relèvent de la « Convention du 10 avril 1981 sur l'interdiction ou la limitation de l'emploi de certaines armes classiques qui peuvent être considérées comme produisant des effets traumatiques excessifs ou comme frappant sans discrimination » signé à New York le 10 avril 1981 par 34 États (texte élaboré à Genève par deux conférences des Nations-Unies en 1978 et 1980)[3].
-Un effet de souffle peut aussi être induit par la foudre[4], par un effondrement minier (pour les personnes présentes dans les galeries proches à ce moment[5]) ou par certains types d'avalanches[6],[7].
+Lors des guerres ou blessures par armes à feu ou lors d'une explosion accidentelle, les lésions induites par l'effet de souffle aggravent les blessures par balles ou éclats isolés et rendent le travail des médecins et chirurgiens plus délicat,.
+Certaines de ces armes relèvent de la « Convention du 10 avril 1981 sur l'interdiction ou la limitation de l'emploi de certaines armes classiques qui peuvent être considérées comme produisant des effets traumatiques excessifs ou comme frappant sans discrimination » signé à New York le 10 avril 1981 par 34 États (texte élaboré à Genève par deux conférences des Nations-Unies en 1978 et 1980).
+Un effet de souffle peut aussi être induit par la foudre, par un effondrement minier (pour les personnes présentes dans les galeries proches à ce moment) ou par certains types d'avalanches,.
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
           <t>Types d'effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une explosion est une onde de surpression. Cette onde a plusieurs effets :
-l'onde de choc dans l'air percute la personne et provoque une onde de choc dans son corps (réfraction) ; cette onde de choc interne peut provoquer des dommages internes ayant des effets à retardement ; par ailleurs, la surpression provoque des dégâts à l'appareil laryngotrachéal et plus encore à l'oreille, pouvant aller jusqu'à la rupture du tympan ou à l'arrachement de la cochlée de ses attaches ; c'est le « blast primaire » (ou blast auriculaire concernant les effets sur l'audition ; surdité temporaire ou définitive) ; ainsi la catastrophe d'AZF-Toulouse (21 septembre 2001) a induit en 5 semaines plus de 3 000 consultations médicales pour troubles otorhinolaryngologiques : 56 % pour surdité, 56 % pour des acouphènes et 46 % pour des otalgies[8]; Une balle pénétrant dans les chairs y génère aussi l'équivalent d'un effet de souffle localement très destructeur [9].
+l'onde de choc dans l'air percute la personne et provoque une onde de choc dans son corps (réfraction) ; cette onde de choc interne peut provoquer des dommages internes ayant des effets à retardement ; par ailleurs, la surpression provoque des dégâts à l'appareil laryngotrachéal et plus encore à l'oreille, pouvant aller jusqu'à la rupture du tympan ou à l'arrachement de la cochlée de ses attaches ; c'est le « blast primaire » (ou blast auriculaire concernant les effets sur l'audition ; surdité temporaire ou définitive) ; ainsi la catastrophe d'AZF-Toulouse (21 septembre 2001) a induit en 5 semaines plus de 3 000 consultations médicales pour troubles otorhinolaryngologiques : 56 % pour surdité, 56 % pour des acouphènes et 46 % pour des otalgies; Une balle pénétrant dans les chairs y génère aussi l'équivalent d'un effet de souffle localement très destructeur .
 elle projette des objets (débris, éclats) qui occasionnent des plaies (victime polycriblée) ; c'est le « blast secondaire » ;
 lorsque l'onde de choc atteint une personne, celle-ci se trouve pendant un très court instant avec une surpression d'un côté et la pression atmosphérique de l'autre ; ceci crée une force qui peut projeter la personne, avec des traumatismes liés à la chute ; c'est le « blast tertiaire » ;
-lorsque la personne est debout ou appuyée sur un plancher ou paroi derrière laquelle survient une explosion les parties de corps en contact avec cette paroi peuvent être gravement endommagées (ainsi l'explosion d'une bombe, grenade, mines ou  EEI à proximité de la coque d'un navire ou sous un véhicule blindé transmet son énergie à l'intérieur du navire ou de l’habitacle pouvant induire de graves « lésions de blast », notamment dans les membres inférieurs en contact avec le plancher (« solid blast »[10],[11]), notamment décrites durant la Guerre d'Algérie[12],[13],[14] et correspondant aux blessures dites de « pied de mine indirect » ou « claque de pont » (« deck-slap injury » chez les marins)[15]. Même sans atteinte par des éclats ces blessures (fracas ouverts, fracas fermés (solid blast)[16] avec ou sans atteinte des organes creux) sont souvent graves, très douloureuses et peuvent conduire à des « amputations traumatiques »[17] (et/ou à de graves handicaps et séquelles[12] voire à la mort en l'absence de soins adéquats).
+lorsque la personne est debout ou appuyée sur un plancher ou paroi derrière laquelle survient une explosion les parties de corps en contact avec cette paroi peuvent être gravement endommagées (ainsi l'explosion d'une bombe, grenade, mines ou  EEI à proximité de la coque d'un navire ou sous un véhicule blindé transmet son énergie à l'intérieur du navire ou de l’habitacle pouvant induire de graves « lésions de blast », notamment dans les membres inférieurs en contact avec le plancher (« solid blast »,), notamment décrites durant la Guerre d'Algérie et correspondant aux blessures dites de « pied de mine indirect » ou « claque de pont » (« deck-slap injury » chez les marins). Même sans atteinte par des éclats ces blessures (fracas ouverts, fracas fermés (solid blast) avec ou sans atteinte des organes creux) sont souvent graves, très douloureuses et peuvent conduire à des « amputations traumatiques » (et/ou à de graves handicaps et séquelles voire à la mort en l'absence de soins adéquats).
 l'effroi provoqué par l'explosion induit fréquemment un traumatisme psychique, que l'on qualifie parfois de « quatrième blast ».
 On considère qu'il faut une pression proche de 3 kg·cm-2 avant d'observer des lésions (uniquement dues à la pression) pouvant être mortelles. Toutefois, il a été prouvé que l'homme peut supporter des pressions plus grandes. On rapporte même la survie d'un équipage de sous-marin ayant été soumis à une pression de 21 kg·cm-2, avec toutefois des dommages irréversibles aux oreilles. Ces valeurs dépendent néanmoins de la vitesse de variation de la pression. Une variation supérieure à 1 kg·cm-2 en moins d'une milliseconde est considérée comme un blast. Si ces taux ne sont pas atteints, on est alors en présence d'un barotraumatisme ou d'un traumatisme dû à des sons de forte intensité.
 </t>
@@ -551,7 +565,9 @@
           <t>Autres dommages « collatéraux »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>brûlures, si l'explosion s'accompagne de chaleur ;
 effondrement de bâtiment ;
@@ -584,7 +600,9 @@
           <t>Moyens de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Outre les dispositifs de prévention des déflagration (par exemple dans un silo de grains où les explosions de poussière peuvent survenir), quelques solutions techniques permettent de protéger certains bâtiments et certains infrastructures des effets destructeurs d'une brusque surpression ou déflagration (externe ou interne)
 Il est possible de ménager des évents mais avec l'inconvénient de générer des pertes de calories ou frigories..
